--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H2">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N2">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O2">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P2">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q2">
-        <v>3.949346116060491</v>
+        <v>53.91542872671388</v>
       </c>
       <c r="R2">
-        <v>3.949346116060491</v>
+        <v>485.238858540425</v>
       </c>
       <c r="S2">
-        <v>0.001959151939650492</v>
+        <v>0.0131958877055154</v>
       </c>
       <c r="T2">
-        <v>0.001959151939650492</v>
+        <v>0.01319588770551541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H3">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N3">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q3">
-        <v>55.54802287677487</v>
+        <v>579.800933384793</v>
       </c>
       <c r="R3">
-        <v>55.54802287677487</v>
+        <v>5218.208400463137</v>
       </c>
       <c r="S3">
-        <v>0.0275557050622191</v>
+        <v>0.1419072089230713</v>
       </c>
       <c r="T3">
-        <v>0.0275557050622191</v>
+        <v>0.1419072089230713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H4">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N4">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q4">
-        <v>21.76383678325125</v>
+        <v>246.3073527880327</v>
       </c>
       <c r="R4">
-        <v>21.76383678325125</v>
+        <v>2216.766175092294</v>
       </c>
       <c r="S4">
-        <v>0.01079638547625597</v>
+        <v>0.06028411987426565</v>
       </c>
       <c r="T4">
-        <v>0.01079638547625597</v>
+        <v>0.06028411987426566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H5">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N5">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q5">
-        <v>30.96364746848105</v>
+        <v>335.6765632946734</v>
       </c>
       <c r="R5">
-        <v>30.96364746848105</v>
+        <v>3021.089069652061</v>
       </c>
       <c r="S5">
-        <v>0.01536013512460642</v>
+        <v>0.08215737756741791</v>
       </c>
       <c r="T5">
-        <v>0.01536013512460642</v>
+        <v>0.08215737756741794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H6">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N6">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q6">
-        <v>4.420609352938521</v>
+        <v>46.379759383739</v>
       </c>
       <c r="R6">
-        <v>4.420609352938521</v>
+        <v>417.417834453651</v>
       </c>
       <c r="S6">
-        <v>0.00219293147111798</v>
+        <v>0.01135152054041631</v>
       </c>
       <c r="T6">
-        <v>0.00219293147111798</v>
+        <v>0.01135152054041631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H7">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N7">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q7">
-        <v>45.63577169679488</v>
+        <v>591.949924053092</v>
       </c>
       <c r="R7">
-        <v>45.63577169679488</v>
+        <v>5327.549316477828</v>
       </c>
       <c r="S7">
-        <v>0.022638535091578</v>
+        <v>0.1448806938861018</v>
       </c>
       <c r="T7">
-        <v>0.022638535091578</v>
+        <v>0.1448806938861018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H8">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J8">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N8">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O8">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P8">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q8">
-        <v>11.37491460754435</v>
+        <v>15.39937961390278</v>
       </c>
       <c r="R8">
-        <v>11.37491460754435</v>
+        <v>138.594416525125</v>
       </c>
       <c r="S8">
-        <v>0.005642753347472849</v>
+        <v>0.003769022873761902</v>
       </c>
       <c r="T8">
-        <v>0.005642753347472849</v>
+        <v>0.003769022873761902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H9">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J9">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N9">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P9">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q9">
-        <v>159.9895269426308</v>
+        <v>165.603332562645</v>
       </c>
       <c r="R9">
-        <v>159.9895269426308</v>
+        <v>1490.429993063805</v>
       </c>
       <c r="S9">
-        <v>0.07936599700865997</v>
+        <v>0.04053168140853579</v>
       </c>
       <c r="T9">
-        <v>0.07936599700865997</v>
+        <v>0.04053168140853579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H10">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J10">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N10">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O10">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P10">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q10">
-        <v>62.68424637062726</v>
+        <v>70.35055673032333</v>
       </c>
       <c r="R10">
-        <v>62.68424637062726</v>
+        <v>633.15501057291</v>
       </c>
       <c r="S10">
-        <v>0.03109577111085057</v>
+        <v>0.01721841165984955</v>
       </c>
       <c r="T10">
-        <v>0.03109577111085057</v>
+        <v>0.01721841165984955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H11">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J11">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N11">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O11">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P11">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q11">
-        <v>89.18155956495663</v>
+        <v>95.87628157176667</v>
       </c>
       <c r="R11">
-        <v>89.18155956495663</v>
+        <v>862.8865341459</v>
       </c>
       <c r="S11">
-        <v>0.0442402920048511</v>
+        <v>0.02346587377903097</v>
       </c>
       <c r="T11">
-        <v>0.0442402920048511</v>
+        <v>0.02346587377903098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H12">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J12">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N12">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O12">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P12">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q12">
-        <v>12.73224792795481</v>
+        <v>13.247034068335</v>
       </c>
       <c r="R12">
-        <v>12.73224792795481</v>
+        <v>119.223306615015</v>
       </c>
       <c r="S12">
-        <v>0.00631608562306661</v>
+        <v>0.003242232847353264</v>
       </c>
       <c r="T12">
-        <v>0.00631608562306661</v>
+        <v>0.003242232847353264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H13">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J13">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N13">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O13">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P13">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q13">
-        <v>131.4402412058635</v>
+        <v>169.07333963938</v>
       </c>
       <c r="R13">
-        <v>131.4402412058635</v>
+        <v>1521.66005675442</v>
       </c>
       <c r="S13">
-        <v>0.06520355419328656</v>
+        <v>0.04138097120930948</v>
       </c>
       <c r="T13">
-        <v>0.06520355419328656</v>
+        <v>0.04138097120930948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H14">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N14">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O14">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P14">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q14">
-        <v>0.09013836041931136</v>
+        <v>0.1227402576888889</v>
       </c>
       <c r="R14">
-        <v>0.09013836041931136</v>
+        <v>1.1046623192</v>
       </c>
       <c r="S14">
-        <v>4.471493215908964E-05</v>
+        <v>3.004087504558954E-05</v>
       </c>
       <c r="T14">
-        <v>4.471493215908964E-05</v>
+        <v>3.004087504558955E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H15">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N15">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P15">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q15">
-        <v>1.267806760791435</v>
+        <v>1.319936011872</v>
       </c>
       <c r="R15">
-        <v>1.267806760791435</v>
+        <v>11.879424106848</v>
       </c>
       <c r="S15">
-        <v>0.0006289208394285247</v>
+        <v>0.0003230564571676801</v>
       </c>
       <c r="T15">
-        <v>0.0006289208394285247</v>
+        <v>0.0003230564571676802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H16">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N16">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O16">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P16">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q16">
-        <v>0.496729460124563</v>
+        <v>0.5607268395306667</v>
       </c>
       <c r="R16">
-        <v>0.496729460124563</v>
+        <v>5.046541555776</v>
       </c>
       <c r="S16">
-        <v>0.0002464125596202047</v>
+        <v>0.0001372387938417533</v>
       </c>
       <c r="T16">
-        <v>0.0002464125596202047</v>
+        <v>0.0001372387938417534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H17">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N17">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O17">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P17">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q17">
-        <v>0.7067024093078232</v>
+        <v>0.7641788046933333</v>
       </c>
       <c r="R17">
-        <v>0.7067024093078232</v>
+        <v>6.87760924224</v>
       </c>
       <c r="S17">
-        <v>0.0003505738305186042</v>
+        <v>0.0001870339888194529</v>
       </c>
       <c r="T17">
-        <v>0.0003505738305186042</v>
+        <v>0.0001870339888194529</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H18">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N18">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O18">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P18">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q18">
-        <v>0.1008942917177452</v>
+        <v>0.105585057056</v>
       </c>
       <c r="R18">
-        <v>0.1008942917177452</v>
+        <v>0.950265513504</v>
       </c>
       <c r="S18">
-        <v>5.005062648589991E-05</v>
+        <v>2.584211215965105E-05</v>
       </c>
       <c r="T18">
-        <v>5.005062648589991E-05</v>
+        <v>2.584211215965106E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H19">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N19">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O19">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P19">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q19">
-        <v>1.041573343113921</v>
+        <v>1.347593591168</v>
       </c>
       <c r="R19">
-        <v>1.041573343113921</v>
+        <v>12.128342320512</v>
       </c>
       <c r="S19">
-        <v>0.0005166932386988163</v>
+        <v>0.0003298256940858607</v>
       </c>
       <c r="T19">
-        <v>0.0005166932386988163</v>
+        <v>0.0003298256940858607</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H20">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N20">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O20">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P20">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q20">
-        <v>33.64406781864637</v>
+        <v>0.2541709694333333</v>
       </c>
       <c r="R20">
-        <v>33.64406781864637</v>
+        <v>2.2875387249</v>
       </c>
       <c r="S20">
-        <v>0.01668981112001989</v>
+        <v>6.220875266790592E-05</v>
       </c>
       <c r="T20">
-        <v>0.01668981112001989</v>
+        <v>6.220875266790593E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H21">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N21">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O21">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P21">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q21">
-        <v>473.2078156578842</v>
+        <v>2.733328266083999</v>
       </c>
       <c r="R21">
-        <v>473.2078156578842</v>
+        <v>24.599954394756</v>
       </c>
       <c r="S21">
-        <v>0.2347441785701713</v>
+        <v>0.0006689864796286849</v>
       </c>
       <c r="T21">
-        <v>0.2347441785701713</v>
+        <v>0.000668986479628685</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H22">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N22">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O22">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P22">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q22">
-        <v>185.403856540195</v>
+        <v>1.161155166808</v>
       </c>
       <c r="R22">
-        <v>185.403856540195</v>
+        <v>10.450396501272</v>
       </c>
       <c r="S22">
-        <v>0.09197328228140567</v>
+        <v>0.000284194590523314</v>
       </c>
       <c r="T22">
-        <v>0.09197328228140567</v>
+        <v>0.0002841945905233141</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H23">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N23">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O23">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P23">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q23">
-        <v>263.7760846297723</v>
+        <v>1.58246423192</v>
       </c>
       <c r="R23">
-        <v>263.7760846297723</v>
+        <v>14.24217808728</v>
       </c>
       <c r="S23">
-        <v>0.1308513897362131</v>
+        <v>0.0003873106603354232</v>
       </c>
       <c r="T23">
-        <v>0.1308513897362131</v>
+        <v>0.0003873106603354233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H24">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N24">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O24">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P24">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q24">
-        <v>37.65871020146568</v>
+        <v>0.218645917932</v>
       </c>
       <c r="R24">
-        <v>37.65871020146568</v>
+        <v>1.967813261388</v>
       </c>
       <c r="S24">
-        <v>0.01868135457561076</v>
+        <v>5.351393930157961E-05</v>
       </c>
       <c r="T24">
-        <v>0.01868135457561076</v>
+        <v>5.351393930157962E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.133172</v>
+      </c>
+      <c r="H25">
+        <v>0.399516</v>
+      </c>
+      <c r="I25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.954868</v>
+      </c>
+      <c r="N25">
+        <v>62.864604</v>
+      </c>
+      <c r="O25">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="P25">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="Q25">
+        <v>2.790601681296</v>
+      </c>
+      <c r="R25">
+        <v>25.115415131664</v>
+      </c>
+      <c r="S25">
+        <v>0.0006830042399154437</v>
+      </c>
+      <c r="T25">
+        <v>0.0006830042399154438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H26">
+        <v>77.213701</v>
+      </c>
+      <c r="I26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.908591666666666</v>
+      </c>
+      <c r="N26">
+        <v>5.725775</v>
+      </c>
+      <c r="O26">
+        <v>0.02908012806830959</v>
+      </c>
+      <c r="P26">
+        <v>0.0290801280683096</v>
+      </c>
+      <c r="Q26">
+        <v>49.12314209369722</v>
+      </c>
+      <c r="R26">
+        <v>442.1082788432749</v>
+      </c>
+      <c r="S26">
+        <v>0.01202296786131879</v>
+      </c>
+      <c r="T26">
+        <v>0.0120229678613188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H27">
+        <v>77.213701</v>
+      </c>
+      <c r="I27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>20.524797</v>
+      </c>
+      <c r="N27">
+        <v>61.574391</v>
+      </c>
+      <c r="O27">
+        <v>0.3127246837341967</v>
+      </c>
+      <c r="P27">
+        <v>0.3127246837341967</v>
+      </c>
+      <c r="Q27">
+        <v>528.2651795478989</v>
+      </c>
+      <c r="R27">
+        <v>4754.386615931091</v>
+      </c>
+      <c r="S27">
+        <v>0.1292937504657933</v>
+      </c>
+      <c r="T27">
+        <v>0.1292937504657933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H28">
+        <v>77.213701</v>
+      </c>
+      <c r="I28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.719214000000001</v>
+      </c>
+      <c r="N28">
+        <v>26.157642</v>
+      </c>
+      <c r="O28">
+        <v>0.132849715422802</v>
+      </c>
+      <c r="P28">
+        <v>0.132849715422802</v>
+      </c>
+      <c r="Q28">
+        <v>224.4142609170047</v>
+      </c>
+      <c r="R28">
+        <v>2019.728348253042</v>
+      </c>
+      <c r="S28">
+        <v>0.05492575050432173</v>
+      </c>
+      <c r="T28">
+        <v>0.05492575050432175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H29">
+        <v>77.213701</v>
+      </c>
+      <c r="I29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.88286</v>
+      </c>
+      <c r="N29">
+        <v>35.64858</v>
+      </c>
+      <c r="O29">
+        <v>0.1810523941044453</v>
+      </c>
+      <c r="P29">
+        <v>0.1810523941044453</v>
+      </c>
+      <c r="Q29">
+        <v>305.8398663549534</v>
+      </c>
+      <c r="R29">
+        <v>2752.55879719458</v>
+      </c>
+      <c r="S29">
+        <v>0.07485479810884152</v>
+      </c>
+      <c r="T29">
+        <v>0.07485479810884153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="H25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="I25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="J25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>16.84932930869</v>
-      </c>
-      <c r="N25">
-        <v>16.84932930869</v>
-      </c>
-      <c r="O25">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="P25">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="Q25">
-        <v>388.7663812699147</v>
-      </c>
-      <c r="R25">
-        <v>388.7663812699147</v>
-      </c>
-      <c r="S25">
-        <v>0.1928553202360525</v>
-      </c>
-      <c r="T25">
-        <v>0.1928553202360525</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H30">
+        <v>77.213701</v>
+      </c>
+      <c r="I30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.641831</v>
+      </c>
+      <c r="N30">
+        <v>4.925493</v>
+      </c>
+      <c r="O30">
+        <v>0.02501564718130951</v>
+      </c>
+      <c r="P30">
+        <v>0.02501564718130951</v>
+      </c>
+      <c r="Q30">
+        <v>42.257282642177</v>
+      </c>
+      <c r="R30">
+        <v>380.315543779593</v>
+      </c>
+      <c r="S30">
+        <v>0.01034253774207871</v>
+      </c>
+      <c r="T30">
+        <v>0.01034253774207871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H31">
+        <v>77.213701</v>
+      </c>
+      <c r="I31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.954868</v>
+      </c>
+      <c r="N31">
+        <v>62.864604</v>
+      </c>
+      <c r="O31">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="P31">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="Q31">
+        <v>539.334304082156</v>
+      </c>
+      <c r="R31">
+        <v>4854.008736739404</v>
+      </c>
+      <c r="S31">
+        <v>0.1320029364595244</v>
+      </c>
+      <c r="T31">
+        <v>0.1320029364595244</v>
       </c>
     </row>
   </sheetData>
